--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1194748.06101688</v>
+        <v>1251492.68365584</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18146847.35069214</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2084488.700652242</v>
+        <v>606553.2040797169</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6395366.525111354</v>
+        <v>6892057.110448613</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +670,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>30.96465002000427</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>133.6791025065776</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.908945691252</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>107.5441644368571</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>355.0767180241758</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1060,16 +1062,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1108,7 +1110,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>202.0194837598082</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>111.9798081259285</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>33.94839096113886</v>
       </c>
     </row>
     <row r="9">
@@ -1303,10 +1305,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>73.01514676193496</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,7 +1353,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>125.6544692828925</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>308.5218268109569</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>175.4475408461118</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1543,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>18.05677735225763</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>26.41040541581673</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>296.8022056924776</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1619,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>136.3469100166721</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>166.5582003516155</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1910,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="18">
@@ -2011,10 +2013,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2242,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>155.2022955251541</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.06571353858833</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>35.20092700998597</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2539,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>107.5742260334149</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>20.28369113775142</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2776,7 +2778,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>82.14201637551371</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2953,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>155.4300230108085</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,16 +3003,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>161.6379250432762</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>129.0617197611588</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3250,7 +3252,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
         <v>225.1454739790328</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>34.71811217257828</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>34.71811217257963</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3746,19 +3748,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695604</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>161.993266425748</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>39.88277234054659</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>16.92574903168994</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3992,7 +3994,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>182.956814569528</v>
+        <v>30.33291354471661</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4192,13 +4194,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>166.3197703738366</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>125.1716544454848</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1385.055244562854</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C2" t="n">
-        <v>946.912771746277</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D2" t="n">
-        <v>511.0029869207216</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901677</v>
+        <v>481.2686461194209</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488304</v>
       </c>
       <c r="W2" t="n">
-        <v>2638.783402168797</v>
+        <v>2365.526674939741</v>
       </c>
       <c r="X2" t="n">
-        <v>2219.640938748108</v>
+        <v>2350.424615559456</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.354815047761</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="3">
@@ -4401,28 +4403,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>966.8681021663376</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C4" t="n">
-        <v>794.3063906495626</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D4" t="n">
-        <v>628.4283978510853</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E4" t="n">
-        <v>458.6703941018225</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F4" t="n">
-        <v>281.9633400635787</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644544</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.9492380324156</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>2154.361157596755</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>2501.868051567097</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
@@ -4513,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>966.8681021663376</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1599.490795190364</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C5" t="n">
-        <v>1161.348322373788</v>
+        <v>540.2297950422051</v>
       </c>
       <c r="D5" t="n">
-        <v>725.438537548232</v>
+        <v>508.3604142570537</v>
       </c>
       <c r="E5" t="n">
-        <v>366.7751860086605</v>
+        <v>478.6260734557529</v>
       </c>
       <c r="F5" t="n">
-        <v>342.9481604582723</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
@@ -4568,19 +4570,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
         <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
+        <v>632.7278666362198</v>
+      </c>
+      <c r="N5" t="n">
         <v>1293.567921177998</v>
       </c>
-      <c r="N5" t="n">
-        <v>1954.407975719776</v>
-      </c>
       <c r="O5" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
         <v>1954.407975719776</v>
@@ -4595,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>2449.993599304466</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>2449.178548755904</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>2434.076489375619</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y5" t="n">
-        <v>2025.790365675272</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>79.46488968908616</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>404.0232146552985</v>
+        <v>377.9595414948409</v>
       </c>
       <c r="K6" t="n">
-        <v>1064.863269197077</v>
+        <v>1038.799596036619</v>
       </c>
       <c r="L6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>815.8501487926407</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>643.2884372758656</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>477.4104444773883</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>307.6524407281256</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="F7" t="n">
-        <v>307.6524407281256</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G7" t="n">
-        <v>142.0611657539532</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4756,19 +4758,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2039.462105407385</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1752.506597277815</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1480.480192864107</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.08843819752</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1007.668767511628</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1791.189889357998</v>
+        <v>1789.512437976118</v>
       </c>
       <c r="C8" t="n">
-        <v>1353.047416541422</v>
+        <v>1351.369965159541</v>
       </c>
       <c r="D8" t="n">
-        <v>917.1376317158661</v>
+        <v>915.4601803339856</v>
       </c>
       <c r="E8" t="n">
-        <v>483.3628868741612</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>490.7501447362868</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1177.506428617977</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1372.363729575105</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1372.363729575105</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1372.363729575105</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1372.363729575105</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2059.120013456795</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2605.61879941539</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2774.772864168447</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2691.120990352284</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2691.120990352284</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2691.120990352284</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2328.50404028611</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.688989737548</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1908.546526316858</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y8" t="n">
-        <v>1904.300806656916</v>
+        <v>2215.812008461025</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>561.6672022746617</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>455.210741111304</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>360.1204522578573</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>266.000037584811</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>182.6161992009726</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>97.23110946715647</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>81.55913044382655</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>406.1174554100389</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1086.850975480416</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1086.850975480416</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1086.850975480416</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1086.850975480416</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1086.850975480416</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1086.850975480416</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1601.562440667838</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1718.735218762178</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1655.279781210561</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1525.101137541162</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.764590541131</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.64707260313</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>964.324318336324</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>809.4568825752041</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.9711033544248</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1134.55361789525</v>
+        <v>900.7186013536161</v>
       </c>
       <c r="C10" t="n">
-        <v>961.9919063784752</v>
+        <v>728.1568898368411</v>
       </c>
       <c r="D10" t="n">
-        <v>796.1139135799979</v>
+        <v>562.2788970383638</v>
       </c>
       <c r="E10" t="n">
-        <v>626.3559098307352</v>
+        <v>392.520893289101</v>
       </c>
       <c r="F10" t="n">
-        <v>449.6488557924914</v>
+        <v>215.8138392508572</v>
       </c>
       <c r="G10" t="n">
-        <v>284.0575808183191</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>144.1554065086936</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>55.49545728336894</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>142.0751424480588</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.8335970191944</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>835.0434787871554</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1294.527345968068</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.786149125713</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2156.455398351494</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.962292321836</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2672.155067186169</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2650.737245891541</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2491.495877189537</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2491.495877189537</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>2213.062876442642</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V10" t="n">
-        <v>1926.107368313073</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1799.183661966717</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X10" t="n">
-        <v>1553.791907300129</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y10" t="n">
-        <v>1326.372236614237</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2355.630400747758</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C11" t="n">
-        <v>2043.992191847801</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D11" t="n">
-        <v>1608.082407022246</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.307662180541</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F11" t="n">
-        <v>746.4402325897488</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G11" t="n">
-        <v>345.0424012130127</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91224665622894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I11" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>490.7501447362868</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1177.506428617977</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1372.363729575105</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M11" t="n">
-        <v>1372.363729575105</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N11" t="n">
-        <v>1372.363729575105</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>1372.363729575105</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2059.120013456795</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2605.61879941539</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2774.772864168447</v>
+        <v>4511.285227714287</v>
       </c>
       <c r="U11" t="n">
-        <v>2774.772864168447</v>
+        <v>4252.062925031303</v>
       </c>
       <c r="V11" t="n">
-        <v>2774.772864168447</v>
+        <v>3889.44597496513</v>
       </c>
       <c r="W11" t="n">
-        <v>2774.772864168447</v>
+        <v>3484.590520376163</v>
       </c>
       <c r="X11" t="n">
-        <v>2355.630400747758</v>
+        <v>3065.448056955473</v>
       </c>
       <c r="Y11" t="n">
-        <v>2355.630400747758</v>
+        <v>2657.161933255127</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>55.53165699917282</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J12" t="n">
-        <v>380.0899819653852</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K12" t="n">
-        <v>1060.823502035762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L12" t="n">
-        <v>1060.823502035762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="M12" t="n">
-        <v>1060.823502035762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="N12" t="n">
-        <v>1060.823502035762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="O12" t="n">
-        <v>1060.823502035762</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.823502035762</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q12" t="n">
-        <v>1601.562440667838</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.2306634029846</v>
+        <v>941.0874841438413</v>
       </c>
       <c r="C13" t="n">
-        <v>751.6689518862096</v>
+        <v>768.5257726270662</v>
       </c>
       <c r="D13" t="n">
-        <v>585.7909590877323</v>
+        <v>602.6477798285889</v>
       </c>
       <c r="E13" t="n">
-        <v>416.0329553384695</v>
+        <v>602.6477798285889</v>
       </c>
       <c r="F13" t="n">
-        <v>239.3259013002258</v>
+        <v>425.9407257903451</v>
       </c>
       <c r="G13" t="n">
-        <v>73.73462632605342</v>
+        <v>260.3494508161728</v>
       </c>
       <c r="H13" t="n">
-        <v>55.49545728336894</v>
+        <v>120.4472765065473</v>
       </c>
       <c r="I13" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.155067186169</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.155067186169</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T13" t="n">
-        <v>2426.275620764624</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U13" t="n">
-        <v>2147.842620017729</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V13" t="n">
-        <v>1860.88711188816</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W13" t="n">
-        <v>1588.860707474451</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X13" t="n">
-        <v>1343.468952807864</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y13" t="n">
-        <v>1116.049282121972</v>
+        <v>1132.906102862828</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1791.606678730858</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C14" t="n">
-        <v>1353.464205914282</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D14" t="n">
-        <v>917.554421088726</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E14" t="n">
-        <v>483.7796762470212</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F14" t="n">
-        <v>55.91224665622894</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G14" t="n">
-        <v>55.91224665622894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91224665622894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I14" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>490.7501447362868</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K14" t="n">
-        <v>1177.506428617977</v>
+        <v>928.1203912770317</v>
       </c>
       <c r="L14" t="n">
-        <v>1177.506428617977</v>
+        <v>2003.180357529891</v>
       </c>
       <c r="M14" t="n">
-        <v>1177.506428617977</v>
+        <v>2018.811256961188</v>
       </c>
       <c r="N14" t="n">
-        <v>1177.506428617977</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="O14" t="n">
-        <v>1372.363729575105</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P14" t="n">
-        <v>2059.120013456795</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q14" t="n">
-        <v>2605.61879941539</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R14" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2774.772864168447</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2774.772864168447</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2774.772864168447</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2774.772864168447</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>2774.772864168447</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>2355.630400747758</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>2217.906249215766</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>81.55913044382655</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>406.1174554100389</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="K15" t="n">
-        <v>1060.823502035762</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.823502035762</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.823502035762</v>
+        <v>479.432103632509</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.823502035762</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.823502035762</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.823502035762</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q15" t="n">
-        <v>1601.562440667838</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1134.55361789525</v>
+        <v>1168.507154829733</v>
       </c>
       <c r="C16" t="n">
-        <v>961.9919063784752</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>796.1139135799979</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>626.3559098307352</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>449.6488557924914</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>284.0575808183191</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>144.1554065086936</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.155067186169</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.155067186169</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T16" t="n">
-        <v>2426.275620764624</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U16" t="n">
-        <v>2358.165574509995</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V16" t="n">
-        <v>2071.210066380425</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W16" t="n">
-        <v>1799.183661966717</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.791907300129</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y16" t="n">
-        <v>1326.372236614237</v>
+        <v>1360.32577354872</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
         <v>793.2056155771595</v>
@@ -5558,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5659,7 +5661,7 @@
         <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,49 +5755,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>926.781058858859</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C22" t="n">
-        <v>754.2193473420839</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D22" t="n">
         <v>754.2193473420839</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.599677577846</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>927.0677766831641</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>754.506065166389</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>588.6280723679117</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>418.8700686186489</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2683.3639582443</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1346.306066088043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>1118.886395402151</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>452.8828383974496</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N27" t="n">
-        <v>452.8828383974496</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O27" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>843.1660143917135</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6412,22 +6414,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1952.384174393663</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,22 +6466,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>475.2748675296854</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>475.2748675296854</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>1632.322702740236</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N29" t="n">
-        <v>2758.053686176683</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1083.7810821021</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>911.2193705853248</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6651,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2396.408450114731</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1503.019371506979</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1275.599700821087</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,22 +6703,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2627364873769</v>
+        <v>775.023562068816</v>
       </c>
       <c r="L32" t="n">
-        <v>1632.322702740236</v>
+        <v>1850.083528321675</v>
       </c>
       <c r="M32" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532226</v>
       </c>
       <c r="N32" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968673</v>
       </c>
       <c r="O32" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
         <v>5113.04201353898</v>
@@ -6725,25 +6727,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6779,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.146432354979</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>884.5847208382039</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1476.384721759858</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>1248.965051073966</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,10 +6943,10 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740236</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740236</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N35" t="n">
         <v>2758.053686176683</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7178,46 +7180,46 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>1601.005850966133</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.440564248063</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731288</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932811</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183548</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145304</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>5077.973213364658</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>4832.093766943114</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>4553.66076619622</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>4266.70525806665</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>3994.678853652942</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652942</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.25918296705</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1357.415144516293</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C41" t="n">
-        <v>919.2726716997167</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D41" t="n">
-        <v>483.3628868741612</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E41" t="n">
-        <v>483.3628868741612</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F41" t="n">
-        <v>55.49545728336894</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G41" t="n">
-        <v>55.49545728336894</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H41" t="n">
-        <v>55.49545728336894</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>55.49545728336894</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>742.2517411650596</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>1429.00802504675</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>2115.764308928441</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2774.772864168447</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>2774.772864168447</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P41" t="n">
-        <v>2774.772864168447</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2774.772864168447</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2774.772864168447</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T41" t="n">
-        <v>2774.772864168447</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U41" t="n">
-        <v>2774.772864168447</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V41" t="n">
-        <v>2774.772864168447</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W41" t="n">
-        <v>2611.143302122237</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X41" t="n">
-        <v>2192.000838701548</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y41" t="n">
-        <v>1783.714715001201</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>561.6672022746617</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.210741111304</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.1204522578573</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.000037584811</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>182.6161992009726</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.23110946715647</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>81.55913044382655</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J42" t="n">
-        <v>81.55913044382655</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="K42" t="n">
-        <v>81.55913044382655</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="L42" t="n">
-        <v>81.55913044382655</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="M42" t="n">
-        <v>768.3154143255172</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="N42" t="n">
-        <v>1455.071698207208</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="O42" t="n">
-        <v>1601.562440667838</v>
+        <v>1048.313148129957</v>
       </c>
       <c r="P42" t="n">
-        <v>1601.562440667838</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="Q42" t="n">
-        <v>1601.562440667838</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="R42" t="n">
-        <v>1718.735218762178</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.279781210561</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.101137541162</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.764590541131</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1149.64707260313</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.324318336324</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>809.4568825752041</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.9711033544248</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1134.55361789525</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>961.9919063784752</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>796.1139135799979</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E43" t="n">
-        <v>626.3559098307352</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F43" t="n">
-        <v>449.6488557924914</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G43" t="n">
-        <v>284.0575808183191</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>144.1554065086936</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>142.0751424480588</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.8335970191944</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>835.0434787871554</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1294.527345968068</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.786149125713</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2156.455398351494</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.962292321836</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.155067186169</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2650.737245891541</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2650.737245891541</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T43" t="n">
-        <v>2404.857799469996</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.424798723101</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V43" t="n">
-        <v>1839.469290593531</v>
+        <v>1899.161753923644</v>
       </c>
       <c r="W43" t="n">
-        <v>1799.183661966717</v>
+        <v>1627.135349509936</v>
       </c>
       <c r="X43" t="n">
-        <v>1553.791907300129</v>
+        <v>1381.743594843348</v>
       </c>
       <c r="Y43" t="n">
-        <v>1326.372236614237</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1758.812975893029</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.670503076453</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D44" t="n">
-        <v>884.7607182508973</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E44" t="n">
-        <v>884.7607182508973</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>456.893288660105</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>55.49545728336894</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>55.49545728336894</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>490.7501447362868</v>
+        <v>254.9523156162913</v>
       </c>
       <c r="K44" t="n">
-        <v>490.7501447362868</v>
+        <v>1089.302607574469</v>
       </c>
       <c r="L44" t="n">
-        <v>490.7501447362868</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M44" t="n">
-        <v>1177.506428617977</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N44" t="n">
-        <v>1864.262712499668</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O44" t="n">
-        <v>1864.262712499668</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P44" t="n">
-        <v>2059.120013456795</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q44" t="n">
-        <v>2605.61879941539</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2774.772864168447</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T44" t="n">
-        <v>2774.772864168447</v>
+        <v>4468.437738815721</v>
       </c>
       <c r="U44" t="n">
-        <v>2774.772864168447</v>
+        <v>4209.215436132738</v>
       </c>
       <c r="V44" t="n">
-        <v>2589.968000966904</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W44" t="n">
-        <v>2185.112546377937</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X44" t="n">
-        <v>2185.112546377937</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y44" t="n">
-        <v>2185.112546377937</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1617.704847680931</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1511.248386517573</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1416.158097664127</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1322.03768299108</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1238.653844607242</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1153.268754873426</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1111.533102689638</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1137.596775850096</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1462.155100816309</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2116.861147442032</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="L45" t="n">
-        <v>2116.861147442032</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="M45" t="n">
-        <v>2116.861147442032</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="N45" t="n">
-        <v>2116.861147442032</v>
+        <v>1125.125617515901</v>
       </c>
       <c r="O45" t="n">
-        <v>2116.861147442032</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="P45" t="n">
-        <v>2116.861147442032</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q45" t="n">
-        <v>2657.600086074107</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2774.772864168447</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2711.31742661683</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2581.138782947432</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2404.8022359474</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2205.6847180094</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2020.361963742594</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1865.494527981474</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1739.008748760694</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1237.171414877529</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>1064.609703360754</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>898.7317105622765</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E46" t="n">
-        <v>728.9737068130137</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F46" t="n">
-        <v>552.2666527747699</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G46" t="n">
-        <v>386.6753778005976</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>246.7732034909721</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I46" t="n">
-        <v>158.1132542656474</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>244.6929394303373</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>519.4513940014729</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>937.6612757694339</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1397.145142950347</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1839.403946107991</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2259.073195333773</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2606.580089304115</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2774.772864168447</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2753.355042873819</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2594.113674171816</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2348.234227750271</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2069.801227003376</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1901.801458948996</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1901.801458948996</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="X46" t="n">
-        <v>1656.409704282408</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y46" t="n">
-        <v>1428.990033596516</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8070,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794094</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8216,13 +8218,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>667.515206607857</v>
@@ -8231,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -8298,7 +8300,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8453,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>693.6932160421117</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>196.825556522351</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>693.6932160421118</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,10 +8692,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>693.6932160421117</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>196.825556522351</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949887368</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>693.6932160421117</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>15.7887873043403</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>196.825556522351</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9003,19 +9005,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>363.2306375284826</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9024,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9237,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9474,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9638,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9960,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,10 +10114,10 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>376.7818457160665</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10124,13 +10126,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>459.5978749662599</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10364,10 +10366,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>629.6711904040903</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10659,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,22 +10828,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>671.1057765021978</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>693.6932160421118</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>693.6932160421118</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>665.6652073131377</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11135,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>693.6932160421117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>147.9704469299297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>693.6932160421117</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>196.825556522351</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>125.239221277454</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>42.41901400958</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>61.36294431725468</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>125.2343690875811</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>267.8563524466711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>4.277894049991858</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23899,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
         <v>160.795820744408</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>120.4463752142716</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>135.0797604404445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>122.4480280049973</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>135.3636110865067</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>223.1369608195779</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>8.789189859684058</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,16 +24891,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>81.78272691405309</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>35.15749310933373</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>208.2197249473434</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>122.9308428424037</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>411.8858435779283</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>238.813633617329</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>229.4233680290248</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
     </row>
     <row r="44">
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25916,22 +25918,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>176.0339659959837</v>
+        <v>328.6578670207951</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26080,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>117.7661826744368</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>602856.5263149483</v>
+        <v>602237.7099028431</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>398746.9228639031</v>
+        <v>568934.5655481165</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>398746.9228639031</v>
+        <v>568934.5655481165</v>
       </c>
     </row>
     <row r="7">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>606688.5224867839</v>
+        <v>606688.5224867838</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>398746.9228639031</v>
+        <v>568934.5655481165</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>398746.9228639031</v>
+        <v>568934.5655481166</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>361899.4409260257</v>
       </c>
       <c r="C2" t="n">
-        <v>361899.4409260257</v>
+        <v>361899.4409260256</v>
       </c>
       <c r="D2" t="n">
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>233737.5968986253</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="F2" t="n">
-        <v>233737.5968986253</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="G2" t="n">
         <v>355628.8692927128</v>
@@ -26350,10 +26352,10 @@
         <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>233737.5968986253</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="P2" t="n">
-        <v>233737.5968986253</v>
+        <v>333498.2429172707</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8131.675070562576</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>160221.1249513057</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6625.418585724987</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,28 +26420,28 @@
         <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
+        <v>139383.7472389046</v>
+      </c>
+      <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
-      <c r="D4" t="n">
-        <v>135399.3219368882</v>
-      </c>
       <c r="E4" t="n">
-        <v>27028.12058141434</v>
+        <v>38563.88892013469</v>
       </c>
       <c r="F4" t="n">
-        <v>27028.12058141434</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="G4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="H4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="I4" t="n">
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
@@ -26451,13 +26453,13 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.95192991273</v>
       </c>
       <c r="O4" t="n">
-        <v>27028.12058141434</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="P4" t="n">
-        <v>27028.12058141434</v>
+        <v>38563.8889201347</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75804.14753536039</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26491,10 +26493,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42176.54753536039</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75396.52945868131</v>
+        <v>-75396.52945868135</v>
       </c>
       <c r="C6" t="n">
+        <v>148303.1691253633</v>
+      </c>
+      <c r="D6" t="n">
         <v>148303.1691253635</v>
       </c>
-      <c r="D6" t="n">
-        <v>142564.2963832146</v>
-      </c>
       <c r="E6" t="n">
-        <v>164532.9287818506</v>
+        <v>73003.32494305942</v>
       </c>
       <c r="F6" t="n">
-        <v>164532.9287818506</v>
+        <v>223669.0785148072</v>
       </c>
       <c r="G6" t="n">
-        <v>76566.55380570184</v>
+        <v>207697.8695843997</v>
       </c>
       <c r="H6" t="n">
-        <v>236787.6787570075</v>
+        <v>236787.6787570076</v>
       </c>
       <c r="I6" t="n">
         <v>236787.6787570075</v>
       </c>
       <c r="J6" t="n">
-        <v>62136.33003930142</v>
+        <v>62136.33003930144</v>
       </c>
       <c r="K6" t="n">
         <v>236787.6787570075</v>
       </c>
       <c r="L6" t="n">
-        <v>230162.2601712825</v>
+        <v>236787.6787570076</v>
       </c>
       <c r="M6" t="n">
-        <v>236787.6787570075</v>
+        <v>111036.5904213169</v>
       </c>
       <c r="N6" t="n">
-        <v>236787.6787570075</v>
+        <v>236787.6787570076</v>
       </c>
       <c r="O6" t="n">
-        <v>164532.9287818506</v>
+        <v>223669.0785148072</v>
       </c>
       <c r="P6" t="n">
-        <v>164532.9287818506</v>
+        <v>223669.0785148073</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>693.6932160421118</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>693.6932160421118</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>26.17800943425483</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>584.5672873426336</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.17800943425482</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>26.17800943425483</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>584.5672873426336</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27441,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>369.8422500230727</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>270.5241599567655</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>33.2365282877808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>326.2168836515538</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>74.36027936911199</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>48.19697732171633</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27828,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>73.62918697961749</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>310.0567666541302</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27910,7 +27912,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>370.2548715022043</v>
       </c>
     </row>
     <row r="9">
@@ -28023,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>90.92021546249565</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>143.6516710866788</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34790,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794094</v>
+        <v>347.9676668794093</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34857,7 +34859,7 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>277.533792496097</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -34869,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,13 +34938,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>667.515206607857</v>
@@ -34951,7 +34953,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
@@ -35018,7 +35020,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>20.13097499434639</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35173,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>693.6932160421117</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>196.825556522351</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,10 +35187,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>693.6932160421118</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35337,7 +35339,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35410,10 +35412,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>693.6932160421117</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>196.825556522351</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,16 +35424,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03656536949887368</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>693.6932160421117</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>15.7887873043403</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>196.825556522351</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>693.6932160421118</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>363.2306375284826</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35957,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>733.6806231366373</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>583.0591140826364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36682,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36832,25 +36834,25 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>376.7818457160665</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37069,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>459.5978749662599</v>
+        <v>679.5583048465014</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37084,10 +37086,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>629.6711904040903</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,13 +37311,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37379,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37397,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,22 +37548,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>671.1057765021978</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>693.6932160421118</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>693.6932160421118</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>665.6652073131377</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>713.2395913281071</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M42" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>693.6932160421117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>147.9704469299297</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>693.6932160421117</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>693.6932160421118</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>196.825556522351</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1251492.68365584</v>
+        <v>1250886.596026944</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16659530.99074005</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797169</v>
+        <v>606553.2040797151</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6892057.110448613</v>
+        <v>6892057.110448614</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>153.7581094573188</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -712,22 +712,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>133.6791025065776</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>27.97358346682135</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>107.5441644368571</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -910,7 +910,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>214.5368897552624</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1062,7 +1062,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>119.8634463900538</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>33.94839096113886</v>
+        <v>64.89418287192142</v>
       </c>
     </row>
     <row r="9">
@@ -1302,10 +1302,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
-        <v>73.01514676193496</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>266.7808108582859</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1387,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>175.4475408461118</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,10 +1545,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>50.30825486907145</v>
       </c>
       <c r="I13" t="n">
-        <v>26.41040541581673</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>296.8022056924776</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1624,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>210.1839737411088</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>166.5582003516155</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>153.2006427344288</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2016,10 +2016,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>50.30825486907106</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>190.4707957071068</v>
       </c>
       <c r="U22" t="n">
-        <v>155.2022955251541</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>157.8824880649885</v>
       </c>
       <c r="X25" t="n">
-        <v>107.5742260334149</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2727,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
-        <v>20.28369113775142</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2955,10 +2955,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>155.4300230108085</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>136.9505762815748</v>
       </c>
       <c r="C34" t="n">
         <v>170.8360944016073</v>
@@ -3207,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3489,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3751,13 +3751,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>11.70291171695604</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>354.5522175742595</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.92574903168994</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V44" t="n">
-        <v>30.33291354471661</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4197,10 +4197,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>125.1716544454848</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.095648603258</v>
+        <v>981.0148405224497</v>
       </c>
       <c r="C2" t="n">
-        <v>1350.953175786681</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D2" t="n">
         <v>915.0433909611256</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194209</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4336,22 +4336,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1954.407975719777</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2366.341725488304</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.341725488304</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W2" t="n">
-        <v>2365.526674939741</v>
+        <v>1963.754649317545</v>
       </c>
       <c r="X2" t="n">
-        <v>2350.424615559456</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y2" t="n">
-        <v>2215.395219088166</v>
+        <v>1136.326062196509</v>
       </c>
     </row>
     <row r="3">
@@ -4403,28 +4403,28 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P3" t="n">
         <v>1058.729261281022</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
       </c>
       <c r="K4" t="n">
-        <v>414.7393562644544</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324156</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596755</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567097</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
         <v>2670.060826431428</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>648.8602641703436</v>
+        <v>576.9744364820456</v>
       </c>
       <c r="C5" t="n">
-        <v>540.2297950422051</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
-        <v>508.3604142570537</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>478.6260734557529</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>454.7990479053647</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
         <v>53.40121652862856</v>
@@ -4570,25 +4570,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7278666362198</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362198</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N5" t="n">
-        <v>1293.567921177998</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4597,22 +4597,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2453.356897385708</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2194.134594702725</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>1831.517644636552</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>1426.662190047585</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>1007.519726626896</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.159834655251</v>
+        <v>599.2336029265493</v>
       </c>
     </row>
     <row r="6">
@@ -4643,13 +4643,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>377.9595414948409</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
         <v>1058.729261281022</v>
@@ -4710,13 +4710,13 @@
         <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>281.9633400635787</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>281.9633400635787</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="H7" t="n">
         <v>142.0611657539532</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1789.512437976118</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C8" t="n">
-        <v>1351.369965159541</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D8" t="n">
-        <v>915.4601803339856</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>481.6854354922808</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
         <v>53.81800590148855</v>
@@ -4804,52 +4804,52 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W8" t="n">
-        <v>2669.245775882865</v>
+        <v>2585.593902066702</v>
       </c>
       <c r="X8" t="n">
-        <v>2250.103312462176</v>
+        <v>2570.491842686417</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.812008461025</v>
+        <v>2504.942163017809</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>900.7186013536161</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1568898368411</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>562.2788970383638</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>392.520893289101</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>215.8138392508572</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
         <v>142.0611657539532</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2124.330557968361</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.375049838791</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1565.348645425083</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1319.956890758495</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1092.537220072603</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2230.862362770219</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1792.719889953642</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>1356.810105128087</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>923.035360286382</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>495.1679306955898</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>93.77009931885365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
         <v>529.0247867717716</v>
@@ -5047,46 +5047,46 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>2164.362573827329</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M11" t="n">
-        <v>2164.362573827329</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N11" t="n">
-        <v>2164.362573827329</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>3144.542240397635</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>3972.852115231031</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>4519.350901189626</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>4511.285227714287</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>4252.062925031303</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="V11" t="n">
-        <v>3889.44597496513</v>
+        <v>4022.168914933386</v>
       </c>
       <c r="W11" t="n">
-        <v>3484.590520376163</v>
+        <v>3617.31346034442</v>
       </c>
       <c r="X11" t="n">
-        <v>3065.448056955473</v>
+        <v>3198.17099692373</v>
       </c>
       <c r="Y11" t="n">
-        <v>2657.161933255127</v>
+        <v>2789.884873223384</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
         <v>398.395094293342</v>
@@ -5114,46 +5114,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.571709137155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
         <v>1187.921714638615</v>
@@ -5162,10 +5162,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.0874841438413</v>
+        <v>995.0825554554531</v>
       </c>
       <c r="C13" t="n">
-        <v>768.5257726270662</v>
+        <v>822.520843938678</v>
       </c>
       <c r="D13" t="n">
-        <v>602.6477798285889</v>
+        <v>656.6428511402007</v>
       </c>
       <c r="E13" t="n">
-        <v>602.6477798285889</v>
+        <v>486.884847390938</v>
       </c>
       <c r="F13" t="n">
-        <v>425.9407257903451</v>
+        <v>310.1777933526942</v>
       </c>
       <c r="G13" t="n">
-        <v>260.3494508161728</v>
+        <v>144.5865183785218</v>
       </c>
       <c r="H13" t="n">
-        <v>120.4472765065473</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
         <v>180.3497844835435</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.011887927025</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.132441505481</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U13" t="n">
-        <v>2164.699440758586</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V13" t="n">
-        <v>1877.743932629016</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W13" t="n">
-        <v>1605.717528215308</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X13" t="n">
-        <v>1360.32577354872</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.906102862828</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2230.862362770219</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C14" t="n">
-        <v>1792.719889953642</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D14" t="n">
-        <v>1356.810105128087</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E14" t="n">
-        <v>923.035360286382</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F14" t="n">
-        <v>495.1679306955898</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>93.77009931885365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>93.77009931885365</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>928.1203912770317</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2003.180357529891</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>2018.811256961188</v>
+        <v>3595.48288019336</v>
       </c>
       <c r="N14" t="n">
-        <v>3144.542240397635</v>
+        <v>3595.48288019336</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397635</v>
+        <v>3595.48288019336</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231031</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189626</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>4604.853092126519</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T14" t="n">
-        <v>4384.785864999558</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="U14" t="n">
-        <v>4125.563562316574</v>
+        <v>4345.630789443538</v>
       </c>
       <c r="V14" t="n">
-        <v>3762.946612250401</v>
+        <v>3983.013839377364</v>
       </c>
       <c r="W14" t="n">
-        <v>3358.091157661434</v>
+        <v>3578.158384788398</v>
       </c>
       <c r="X14" t="n">
-        <v>2938.948694240745</v>
+        <v>3159.015921367708</v>
       </c>
       <c r="Y14" t="n">
-        <v>2530.662570540399</v>
+        <v>2946.70887718477</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
         <v>398.395094293342</v>
@@ -5351,46 +5351,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
         <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8337724793113</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>119.8337724793113</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>119.8337724793113</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>479.432103632509</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
         <v>1187.921714638615</v>
@@ -5399,10 +5399,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1168.507154829733</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
         <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>834.3885556154826</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>664.6305518662199</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>487.9234978279761</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
         <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>182.4300485441783</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
         <v>180.3497844835435</v>
@@ -5460,28 +5460,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2689.011887927025</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T16" t="n">
-        <v>2443.132441505481</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="U16" t="n">
-        <v>2164.699440758586</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V16" t="n">
-        <v>1877.743932629016</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W16" t="n">
-        <v>1605.717528215308</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X16" t="n">
-        <v>1360.32577354872</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>1360.32577354872</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>495.3755883428635</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>318.6685343046197</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>153.0772593304474</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5755,16 +5755,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1286.300469346936</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5828,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5937,22 +5937,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2367.284338333084</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2088.851337586189</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y22" t="n">
         <v>1284.477670376323</v>
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>927.0677766831641</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>754.506065166389</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>588.6280723679117</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6180,19 +6180,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X25" t="n">
-        <v>1346.306066088043</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1118.886395402151</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1015.727725908489</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>843.1660143917135</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>677.2880215932362</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>507.5300178439735</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>330.8229638057297</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2517.772683270128</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2239.339682523233</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1952.384174393663</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1680.357769979955</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1434.966015313368</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1207.546344627476</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1083.7810821021</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>911.2193705853248</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>296.6079193348953</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>131.016644360723</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6660,13 +6660,13 @@
         <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1748.411126173566</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1503.019371506979</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.599700821087</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,16 +6703,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.023562068816</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321675</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532226</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968673</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
         <v>5113.04201353898</v>
@@ -6727,25 +6727,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1230.99296709327</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2758.053686176683</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7180,22 +7180,22 @@
         <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>1601.005850966133</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2758.053686176684</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7210,16 +7210,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2104.363000055491</v>
+        <v>2188.014873871656</v>
       </c>
       <c r="C41" t="n">
-        <v>1666.220527238914</v>
+        <v>1749.872401055079</v>
       </c>
       <c r="D41" t="n">
-        <v>1230.310742413359</v>
+        <v>1313.962616229524</v>
       </c>
       <c r="E41" t="n">
-        <v>796.5359975716538</v>
+        <v>880.1878713878186</v>
       </c>
       <c r="F41" t="n">
-        <v>784.7148746252335</v>
+        <v>452.3204417970264</v>
       </c>
       <c r="G41" t="n">
-        <v>383.3170432484974</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H41" t="n">
-        <v>94.18688869171365</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I41" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
         <v>529.0247867717716</v>
@@ -7426,37 +7426,37 @@
         <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126519</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.785864999558</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316574</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250401</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661434</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X41" t="n">
-        <v>2938.948694240745</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y41" t="n">
-        <v>2530.662570540399</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
         <v>398.395094293342</v>
@@ -7484,46 +7484,46 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885365</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885365</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885365</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1048.313148129957</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1757.009860797662</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1757.009860797662</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
         <v>1187.921714638615</v>
@@ -7532,10 +7532,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1172.828259930735</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E43" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
         <v>180.3497844835435</v>
@@ -7596,25 +7596,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2710.429709221653</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2464.550262800109</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2186.117262053214</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>1899.161753923644</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1627.135349509936</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1381.743594843348</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7642,46 +7642,46 @@
         <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>254.9523156162913</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>1089.302607574469</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>4688.504965942682</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>4468.437738815721</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.215436132738</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V44" t="n">
         <v>4178.576129521913</v>
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>599.9418443101464</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>493.4853831467887</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
         <v>398.395094293342</v>
@@ -7721,7 +7721,7 @@
         <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
         <v>119.8337724793113</v>
@@ -7730,37 +7730,37 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>1125.125617515901</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>1125.125617515901</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>1125.125617515901</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>1125.125617515901</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
         <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>1757.009860797662</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>1693.554423246045</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
         <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>1387.039232576615</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
         <v>1187.921714638615</v>
@@ -7769,10 +7769,10 @@
         <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>847.7315246106888</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>721.2457453899095</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>944.266136395785</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>771.7044248790099</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154826</v>
+        <v>605.8264320805326</v>
       </c>
       <c r="E46" t="n">
-        <v>664.6305518662199</v>
+        <v>436.0684283312698</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279761</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H46" t="n">
-        <v>182.4300485441783</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I46" t="n">
-        <v>93.77009931885365</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
         <v>180.3497844835435</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W46" t="n">
-        <v>1718.502563927013</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X46" t="n">
-        <v>1592.066549335614</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1364.646878649722</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
   </sheetData>
@@ -7984,10 +7984,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8054,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -8218,28 +8218,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>145.5272350047205</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,7 +8695,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761404</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8935,16 +8935,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>15.7887873043403</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>381.181045492599</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9005,19 +9005,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>363.2306375284826</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9883,22 +9883,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10120,22 +10120,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465014</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>671.1057765021978</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10846,7 +10846,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>713.2395913281071</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>162.8103194923613</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>155.2557639217728</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>42.41901400958</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>88.19489769745778</v>
       </c>
       <c r="I13" t="n">
-        <v>61.36294431725468</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>125.2343690875811</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>194.0192887222343</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>4.277894049991858</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>90.22000922290047</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>88.19489769745817</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>52.94985625022244</v>
       </c>
       <c r="U22" t="n">
-        <v>120.4463752142716</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,16 +24420,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="X25" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
-        <v>223.1369608195779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>8.789189859684058</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>110.0349065174853</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>52.94985625022244</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>411.8858435779283</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>42.8316354887092</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25918,13 +25918,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V44" t="n">
-        <v>328.6578670207951</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>117.7661826744368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>568934.5655481165</v>
+        <v>568934.5655481168</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>568934.5655481165</v>
+        <v>568934.5655481167</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>568934.5655481165</v>
+        <v>568934.5655481167</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>568934.5655481166</v>
+        <v>568934.5655481167</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="F2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172709</v>
       </c>
       <c r="G2" t="n">
         <v>355628.8692927128</v>
@@ -26334,7 +26334,7 @@
         <v>355628.8692927128</v>
       </c>
       <c r="I2" t="n">
-        <v>355628.8692927128</v>
+        <v>355628.8692927127</v>
       </c>
       <c r="J2" t="n">
         <v>355628.8692927128</v>
@@ -26352,10 +26352,10 @@
         <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172709</v>
       </c>
       <c r="P2" t="n">
-        <v>333498.2429172707</v>
+        <v>333498.2429172708</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29089.80917260791</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356907</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>139383.7472389045</v>
       </c>
       <c r="C4" t="n">
-        <v>139383.7472389046</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
         <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
-        <v>38563.88892013469</v>
+        <v>38563.8889201347</v>
       </c>
       <c r="F4" t="n">
         <v>38563.8889201347</v>
@@ -26441,7 +26441,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="J4" t="n">
-        <v>41122.95192991272</v>
+        <v>41122.95192991271</v>
       </c>
       <c r="K4" t="n">
         <v>41122.95192991271</v>
@@ -26453,7 +26453,7 @@
         <v>41122.95192991271</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991273</v>
+        <v>41122.95192991272</v>
       </c>
       <c r="O4" t="n">
         <v>38563.8889201347</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26478,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26493,10 +26493,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>71265.27548232877</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-75396.52945868135</v>
+        <v>-75396.52945868134</v>
       </c>
       <c r="C6" t="n">
-        <v>148303.1691253633</v>
+        <v>148303.1691253635</v>
       </c>
       <c r="D6" t="n">
         <v>148303.1691253635</v>
       </c>
       <c r="E6" t="n">
-        <v>73003.32494305942</v>
+        <v>72898.13532080469</v>
       </c>
       <c r="F6" t="n">
-        <v>223669.0785148072</v>
+        <v>223563.8888925528</v>
       </c>
       <c r="G6" t="n">
-        <v>207697.8695843997</v>
+        <v>207674.6452450172</v>
       </c>
       <c r="H6" t="n">
-        <v>236787.6787570076</v>
+        <v>236764.4544176249</v>
       </c>
       <c r="I6" t="n">
-        <v>236787.6787570075</v>
+        <v>236764.4544176248</v>
       </c>
       <c r="J6" t="n">
-        <v>62136.33003930144</v>
+        <v>62113.10569991884</v>
       </c>
       <c r="K6" t="n">
-        <v>236787.6787570075</v>
+        <v>236764.4544176248</v>
       </c>
       <c r="L6" t="n">
-        <v>236787.6787570076</v>
+        <v>236764.4544176249</v>
       </c>
       <c r="M6" t="n">
-        <v>111036.5904213169</v>
+        <v>111013.3660819341</v>
       </c>
       <c r="N6" t="n">
-        <v>236787.6787570076</v>
+        <v>236764.4544176249</v>
       </c>
       <c r="O6" t="n">
-        <v>223669.0785148072</v>
+        <v>223563.8888925528</v>
       </c>
       <c r="P6" t="n">
-        <v>223669.0785148073</v>
+        <v>223563.8888925527</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078568</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778136</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>106.1342618990748</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>268.2784653227399</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>270.5241599567655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>197.1718905122115</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>326.2168836515538</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27669,10 +27669,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>3.329665100429338</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27782,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>48.19697732171633</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27791,7 +27791,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>48.19697732171632</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27918,10 +27918,10 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.2548715022043</v>
+        <v>339.3090795914217</v>
       </c>
     </row>
     <row r="9">
@@ -28022,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
-        <v>90.92021546249565</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28061,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -34704,10 +34704,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34774,10 +34774,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>347.9676668794093</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q3" t="n">
         <v>546.2009481132077</v>
@@ -34859,7 +34859,7 @@
         <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>277.533792496097</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
@@ -34871,13 +34871,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>145.5272350047205</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,7 +35415,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0782778761404</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35567,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>15.7887873043403</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>381.181045492599</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35725,19 +35725,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>363.2306375284826</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1172.126241485671</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35977,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>756.3484258820594</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465014</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>753.9218057523904</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,13 +37548,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>671.1057765021978</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37566,7 +37566,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>713.2395913281071</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>162.8103194923613</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>884.1022829978629</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,13 +38110,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
